--- a/status/excel/fromBox/RHON_excel.xlsx
+++ b/status/excel/fromBox/RHON_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollyburger/Documents/Events/Automation/Ready to Upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selenawallace/Downloads/Status Sheets-selected (6)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{7B1E3546-A0B3-2743-B7CF-4AFB925907FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6E2DE9-3524-4337-92C3-43D0432B4F48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31E3D5-6CD0-C54C-A2CA-CF9DD62E42AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16180" xr2:uid="{DE880C28-F152-A449-A51A-BC299DE25961}"/>
   </bookViews>
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,12 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,12 +439,15 @@
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,10 +457,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -479,7 +481,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -503,7 +505,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -527,7 +529,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -551,7 +553,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -575,7 +577,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -599,7 +601,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,7 +625,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -647,7 +649,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -671,7 +673,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -695,7 +697,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -719,7 +721,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -743,7 +745,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -767,7 +769,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -791,7 +793,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -815,7 +817,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -839,7 +841,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -863,7 +865,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -887,7 +889,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -911,7 +913,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -935,7 +937,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -959,7 +961,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -983,7 +985,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1007,7 +1009,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1031,7 +1033,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1055,7 +1057,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1079,7 +1081,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1103,7 +1105,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1127,7 +1129,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1151,7 +1153,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1175,7 +1177,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1199,7 +1201,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>41943</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>41973</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>42035</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>42155</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>42185</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1386,7 +1388,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>42247</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>42308</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>42338</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>42369</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>42490</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1573,7 +1575,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>42582</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>42704</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>42766</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>42947</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>43008</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>43039</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>43190</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>43799</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2355,7 +2357,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>44135</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2695,7 +2697,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2773,14 +2775,14 @@
       <c r="C124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="2">
         <v>45108</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="2">
         <v>45169</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2790,14 +2792,14 @@
       <c r="C125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="2">
         <v>45170</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="2">
         <v>45230</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2807,14 +2809,14 @@
       <c r="C126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="2">
         <v>45231</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="2">
         <v>45291</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2824,14 +2826,14 @@
       <c r="C127" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="2">
         <v>45292</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2841,10 +2843,10 @@
       <c r="C128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="2">
         <v>45352</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="2">
         <v>45366</v>
       </c>
     </row>
